--- a/data/trans_dic/P07B_R2_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P07B_R2_2023-Clase-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9295934673672132</v>
+        <v>0.9295934673672133</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9401327225847371</v>
+        <v>0.940132722584737</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9345475987952453</v>
+        <v>0.9345475987952451</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9010597012662532</v>
+        <v>0.8975852472898979</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9185177573029453</v>
+        <v>0.9202189153980096</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9162030210321992</v>
+        <v>0.9167454737312599</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9511283403358618</v>
+        <v>0.9511951885203245</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9568578547698281</v>
+        <v>0.9567249720374299</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9485895090282134</v>
+        <v>0.9490240109087063</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.9616306331514644</v>
+        <v>0.9616306331514642</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9089406240542238</v>
+        <v>0.9089406240542237</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9370316616585299</v>
+        <v>0.93703166165853</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9393989220250223</v>
+        <v>0.9402562079686542</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.878429591122017</v>
+        <v>0.8822278941752165</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9203741890920852</v>
+        <v>0.9212738704238586</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9757175114864245</v>
+        <v>0.976885755411014</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9295657069808257</v>
+        <v>0.9318149631583799</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9513277139737486</v>
+        <v>0.9512633734112714</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9365418510192731</v>
+        <v>0.9365418510192729</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.8935529815309806</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9099929474075976</v>
+        <v>0.9071616656576372</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8545867038607519</v>
+        <v>0.8533391733006881</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.903582513265186</v>
+        <v>0.9026400183596893</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9574442098328548</v>
+        <v>0.957063771073431</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9237208876415816</v>
+        <v>0.9222564302113153</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9429630235004409</v>
+        <v>0.9425120448802905</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.93584843119035</v>
+        <v>0.9358484311903502</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.9202972906262599</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.929128684274086</v>
+        <v>0.9291286842740862</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9206414802524615</v>
+        <v>0.917823675318545</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9056449702899833</v>
+        <v>0.9032496315384984</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9176655890659485</v>
+        <v>0.9184568312887771</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9494787619196717</v>
+        <v>0.9494288192569637</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9353417957376675</v>
+        <v>0.9338731091753145</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9396212092510065</v>
+        <v>0.9389071787730793</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9231000067303564</v>
+        <v>0.9231000067303563</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.872904386783238</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8932854328399074</v>
+        <v>0.893285432839907</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.896089877029065</v>
+        <v>0.8981071214051783</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8549978147009798</v>
+        <v>0.8538300008516363</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8790468598178106</v>
+        <v>0.8771332097223838</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9436133489648474</v>
+        <v>0.9434896264665508</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8899443285982881</v>
+        <v>0.8895199036735623</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9079364985522059</v>
+        <v>0.906065844332866</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.9558910374690258</v>
+        <v>0.9558910374690257</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.894109310379089</v>
+        <v>0.8941093103790893</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.9076610640529299</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9179438230171472</v>
+        <v>0.9176857558455238</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8744228776968437</v>
+        <v>0.8733170969644095</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8917290396875547</v>
+        <v>0.89038851323098</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9776460977279822</v>
+        <v>0.9787134656948623</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9120251310272288</v>
+        <v>0.9120306842652076</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9214228998373334</v>
+        <v>0.9229449027884015</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.9378397936416496</v>
+        <v>0.9378397936416497</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.9033476679444146</v>
+        <v>0.9033476679444143</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9201236653261602</v>
+        <v>0.9201236653261603</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9282716276070366</v>
+        <v>0.9284410773507145</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8946000884328545</v>
+        <v>0.894350097305902</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9136796375710869</v>
+        <v>0.9137394170104285</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9465823279278298</v>
+        <v>0.9458935781629589</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9107411483518879</v>
+        <v>0.9107972864486985</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9255429709154567</v>
+        <v>0.9255268775822627</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>496140</v>
+        <v>494227</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>448614</v>
+        <v>449445</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>951962</v>
+        <v>952525</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>523708</v>
+        <v>523745</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>467340</v>
+        <v>467275</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>985612</v>
+        <v>986063</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>453929</v>
+        <v>454343</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>371701</v>
+        <v>373309</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>834186</v>
+        <v>835001</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>471478</v>
+        <v>472043</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>393339</v>
+        <v>394291</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>862241</v>
+        <v>862182</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>429164</v>
+        <v>427828</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>160232</v>
+        <v>159999</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>595559</v>
+        <v>594938</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>451542</v>
+        <v>451363</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>173195</v>
+        <v>172920</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>621515</v>
+        <v>621218</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1042022</v>
+        <v>1038832</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>779951</v>
+        <v>777889</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1828957</v>
+        <v>1830534</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1074661</v>
+        <v>1074604</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>805527</v>
+        <v>804262</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1872716</v>
+        <v>1871293</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>508947</v>
+        <v>510093</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>710375</v>
+        <v>709405</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1229623</v>
+        <v>1226946</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>535938</v>
+        <v>535868</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>739410</v>
+        <v>739058</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1270034</v>
+        <v>1267418</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>217762</v>
+        <v>217701</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>738259</v>
+        <v>737325</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>964413</v>
+        <v>962963</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>231925</v>
+        <v>232178</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>770005</v>
+        <v>770010</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>996527</v>
+        <v>998173</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3195553</v>
+        <v>3196136</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3252223</v>
+        <v>3251314</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6466905</v>
+        <v>6467328</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3258587</v>
+        <v>3256216</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>3310902</v>
+        <v>3311106</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>6550872</v>
+        <v>6550758</v>
       </c>
     </row>
     <row r="32">
